--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPDRequest-CriteriaTaxonomy-SELFCONTAINED-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPDRequest-CriteriaTaxonomy-SELFCONTAINED-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16590" windowHeight="4635" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="6420" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18603" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18603" uniqueCount="460">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -797,9 +797,6 @@
   </si>
   <si>
     <t>Total balance sheet/Total equity</t>
-  </si>
-  <si>
-    <t>Maximum requirement</t>
   </si>
   <si>
     <t>0.5</t>
@@ -12678,7 +12675,7 @@
         <v>199</v>
       </c>
       <c r="N3" s="116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O3" s="116" t="s">
         <v>0</v>
@@ -12810,7 +12807,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K6" s="150">
         <v>1</v>
@@ -13057,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N11" s="86" t="s">
         <v>19</v>
@@ -13091,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J12" s="86" t="s">
         <v>0</v>
@@ -13137,16 +13134,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J13" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K13" s="152" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M13" s="86" t="s">
         <v>0</v>
@@ -13195,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N14" s="86" t="s">
         <v>19</v>
@@ -13229,10 +13226,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J15" s="86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K15" s="153">
         <v>1</v>
@@ -13278,7 +13275,7 @@
         <v>62</v>
       </c>
       <c r="J16" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K16" s="153">
         <v>1</v>
@@ -13306,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17" s="101" t="s">
         <v>0</v>
@@ -13425,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N19" s="75" t="s">
         <v>19</v>
@@ -13517,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N21" s="75" t="s">
         <v>113</v>
@@ -13551,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K22" s="155">
         <v>1</v>
@@ -13784,7 +13781,7 @@
         <v>62</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K27" s="157">
         <v>1</v>
@@ -13830,7 +13827,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K28" s="157" t="s">
         <v>17</v>
@@ -13876,7 +13873,7 @@
         <v>67</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K29" s="157" t="s">
         <v>17</v>
@@ -14252,7 +14249,7 @@
         <v>24</v>
       </c>
       <c r="J37" s="118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K37" s="150">
         <v>1</v>
@@ -14499,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N42" s="86" t="s">
         <v>19</v>
@@ -14533,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J43" s="86" t="s">
         <v>0</v>
@@ -14579,16 +14576,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J44" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K44" s="152" t="s">
         <v>33</v>
       </c>
       <c r="L44" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M44" s="86" t="s">
         <v>0</v>
@@ -14637,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N45" s="86" t="s">
         <v>19</v>
@@ -14671,10 +14668,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J46" s="86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K46" s="153">
         <v>1</v>
@@ -14720,7 +14717,7 @@
         <v>62</v>
       </c>
       <c r="J47" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K47" s="153">
         <v>1</v>
@@ -14748,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="101" t="s">
         <v>0</v>
@@ -14867,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N50" s="75" t="s">
         <v>19</v>
@@ -14959,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N52" s="75" t="s">
         <v>113</v>
@@ -14993,10 +14990,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J53" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K53" s="155">
         <v>1</v>
@@ -15226,7 +15223,7 @@
         <v>62</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K58" s="157">
         <v>1</v>
@@ -15272,7 +15269,7 @@
         <v>65</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K59" s="157" t="s">
         <v>17</v>
@@ -15318,7 +15315,7 @@
         <v>67</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K60" s="157" t="s">
         <v>17</v>
@@ -15694,7 +15691,7 @@
         <v>24</v>
       </c>
       <c r="J68" s="118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K68" s="150">
         <v>1</v>
@@ -15941,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N73" s="86" t="s">
         <v>19</v>
@@ -15975,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J74" s="86" t="s">
         <v>0</v>
@@ -16021,16 +16018,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J75" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K75" s="152" t="s">
         <v>33</v>
       </c>
       <c r="L75" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M75" s="86" t="s">
         <v>0</v>
@@ -16079,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N76" s="86" t="s">
         <v>19</v>
@@ -16113,10 +16110,10 @@
         <v>0</v>
       </c>
       <c r="I77" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J77" s="86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K77" s="153">
         <v>1</v>
@@ -16162,7 +16159,7 @@
         <v>62</v>
       </c>
       <c r="J78" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K78" s="153">
         <v>1</v>
@@ -16190,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E79" s="101" t="s">
         <v>0</v>
@@ -16309,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N81" s="75" t="s">
         <v>19</v>
@@ -16401,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N83" s="75" t="s">
         <v>113</v>
@@ -16435,10 +16432,10 @@
         <v>0</v>
       </c>
       <c r="I84" s="107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J84" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K84" s="155">
         <v>1</v>
@@ -16668,7 +16665,7 @@
         <v>62</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K89" s="157">
         <v>1</v>
@@ -16714,7 +16711,7 @@
         <v>65</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K90" s="157" t="s">
         <v>17</v>
@@ -16760,7 +16757,7 @@
         <v>67</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K91" s="157" t="s">
         <v>17</v>
@@ -17136,7 +17133,7 @@
         <v>24</v>
       </c>
       <c r="J99" s="118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K99" s="150">
         <v>1</v>
@@ -17383,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N104" s="86" t="s">
         <v>19</v>
@@ -17417,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="99" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J105" s="86" t="s">
         <v>0</v>
@@ -17463,16 +17460,16 @@
         <v>0</v>
       </c>
       <c r="I106" s="99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J106" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K106" s="152" t="s">
         <v>33</v>
       </c>
       <c r="L106" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M106" s="86" t="s">
         <v>0</v>
@@ -17521,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N107" s="86" t="s">
         <v>19</v>
@@ -17555,10 +17552,10 @@
         <v>0</v>
       </c>
       <c r="I108" s="99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J108" s="86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K108" s="153">
         <v>1</v>
@@ -17604,7 +17601,7 @@
         <v>62</v>
       </c>
       <c r="J109" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K109" s="153">
         <v>1</v>
@@ -17632,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E110" s="101" t="s">
         <v>0</v>
@@ -17751,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N112" s="75" t="s">
         <v>19</v>
@@ -17843,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N114" s="75" t="s">
         <v>113</v>
@@ -17877,10 +17874,10 @@
         <v>0</v>
       </c>
       <c r="I115" s="107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J115" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K115" s="155">
         <v>1</v>
@@ -18110,7 +18107,7 @@
         <v>62</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K120" s="157">
         <v>1</v>
@@ -18156,7 +18153,7 @@
         <v>65</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K121" s="157" t="s">
         <v>17</v>
@@ -18202,7 +18199,7 @@
         <v>67</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K122" s="157" t="s">
         <v>17</v>
@@ -18960,7 +18957,7 @@
         <v>19</v>
       </c>
       <c r="O11" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -18987,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J12" s="164">
         <v>100000</v>
@@ -19032,7 +19029,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J13" s="164">
         <v>120000</v>
@@ -19077,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J14" s="164">
         <v>130000</v>
@@ -19187,7 +19184,7 @@
         <v>19</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -19504,7 +19501,7 @@
         <v>220</v>
       </c>
       <c r="J23" s="166" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K23" s="157">
         <v>1</v>
@@ -19552,7 +19549,7 @@
         <v>221</v>
       </c>
       <c r="J24" s="166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K24" s="157">
         <v>1</v>
@@ -19741,7 +19738,7 @@
         <v>220</v>
       </c>
       <c r="J28" s="166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K28" s="157">
         <v>1</v>
@@ -19789,7 +19786,7 @@
         <v>221</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K29" s="157">
         <v>1</v>
@@ -20450,7 +20447,7 @@
         <v>19</v>
       </c>
       <c r="O11" s="187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20477,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J12" s="189">
         <v>3</v>
@@ -20532,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="187" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N13" s="187" t="s">
         <v>19</v>
@@ -20563,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J14" s="187" t="s">
         <v>0</v>
@@ -20606,16 +20603,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J15" s="195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" s="188" t="s">
         <v>33</v>
       </c>
       <c r="L15" s="187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M15" s="187" t="s">
         <v>0</v>
@@ -20634,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>0</v>
@@ -20692,16 +20689,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" s="195" t="s">
         <v>457</v>
-      </c>
-      <c r="J17" s="195" t="s">
-        <v>458</v>
       </c>
       <c r="K17" s="188" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M17" s="187" t="s">
         <v>0</v>
@@ -20737,7 +20734,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J18" s="189">
         <v>1000000</v>
@@ -20847,7 +20844,7 @@
         <v>19</v>
       </c>
       <c r="O20" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -20876,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="199" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J21" s="194" t="s">
         <v>51</v>
@@ -21587,7 +21584,7 @@
         <v>19</v>
       </c>
       <c r="O11" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21614,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J12" s="167" t="s">
         <v>51</v>
@@ -21659,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J13" s="164">
         <v>120000</v>
@@ -21797,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="136" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J16" s="8">
         <v>3000000</v>
@@ -21845,10 +21842,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="K17" s="157">
         <v>1</v>
@@ -22508,7 +22505,7 @@
         <v>19</v>
       </c>
       <c r="O11" s="187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22535,7 +22532,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J12" s="189">
         <v>3</v>
@@ -22590,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="187" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N13" s="187" t="s">
         <v>19</v>
@@ -22621,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J14" s="187" t="s">
         <v>0</v>
@@ -22664,16 +22661,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J15" s="195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K15" s="188" t="s">
         <v>33</v>
       </c>
       <c r="L15" s="187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M15" s="187" t="s">
         <v>0</v>
@@ -22692,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>0</v>
@@ -22750,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17" s="195" t="s">
         <v>457</v>
-      </c>
-      <c r="J17" s="195" t="s">
-        <v>458</v>
       </c>
       <c r="K17" s="188" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M17" s="187" t="s">
         <v>0</v>
@@ -22795,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J18" s="189">
         <v>1000000</v>
@@ -22905,7 +22902,7 @@
         <v>19</v>
       </c>
       <c r="O20" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -22934,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="199" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J21" s="194" t="s">
         <v>51</v>
@@ -23108,7 +23105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -23800,8 +23797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23809,9 +23806,14 @@
     <col min="1" max="1" width="3" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="47" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="47" customWidth="1"/>
-    <col min="4" max="5" width="25.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="47"/>
+    <col min="7" max="7" width="2.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="47"/>
+    <col min="9" max="9" width="22.7109375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="0" style="47" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -24357,16 +24359,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>253</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>254</v>
       </c>
       <c r="K12" s="37">
         <v>1</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>0</v>
@@ -24392,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>0</v>
@@ -24436,7 +24438,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>0</v>
@@ -24545,16 +24547,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>0</v>
@@ -24924,7 +24926,7 @@
         <v>249</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="37">
         <v>1</v>
@@ -24971,7 +24973,7 @@
         <v>251</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K25" s="37">
         <v>1</v>
@@ -25015,16 +25017,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K26" s="37">
         <v>1</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M26" s="37" t="s">
         <v>0</v>
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>0</v>
@@ -25094,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>0</v>
@@ -25203,16 +25205,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>0</v>
@@ -25582,7 +25584,7 @@
         <v>249</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K38" s="37">
         <v>1</v>
@@ -25629,7 +25631,7 @@
         <v>251</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K39" s="37">
         <v>1</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K40" s="37">
         <v>1</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M40" s="37" t="s">
         <v>0</v>
@@ -25708,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>0</v>
@@ -25861,16 +25863,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K44" s="8">
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>0</v>
@@ -26163,25 +26165,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -26273,7 +26275,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -26937,25 +26939,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -27047,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -27345,25 +27347,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="144" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="65" t="s">
+      <c r="N3" s="65" t="s">
         <v>277</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>278</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -27455,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>19</v>
@@ -27647,7 +27649,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>19</v>
@@ -27681,10 +27683,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>282</v>
       </c>
       <c r="K10" s="37" t="s">
         <v>33</v>
@@ -27714,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>19</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>0</v>
@@ -27873,25 +27875,25 @@
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>285</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>286</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -27906,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15" s="37" t="s">
         <v>0</v>
@@ -27951,7 +27953,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37" t="s">
@@ -28027,13 +28029,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -28063,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>0</v>
@@ -28121,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N19" s="24" t="s">
         <v>19</v>
@@ -28155,7 +28157,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>0</v>
@@ -28201,16 +28203,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" s="8">
         <v>1</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>0</v>
@@ -28293,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>0</v>
@@ -28305,13 +28307,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N23" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -28341,10 +28343,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>17</v>
@@ -28389,7 +28391,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J25" s="8">
         <v>150000</v>
@@ -28437,10 +28439,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>17</v>
@@ -28485,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J27" s="8">
         <v>7591212</v>
@@ -28533,10 +28535,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J28" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>17</v>
@@ -28581,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>36</v>
@@ -28629,7 +28631,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>0</v>
@@ -28641,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N30" s="24" t="s">
         <v>19</v>
@@ -28677,10 +28679,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>38</v>
@@ -28725,10 +28727,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>17</v>
@@ -28773,10 +28775,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>313</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>314</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>17</v>
@@ -28915,7 +28917,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>36</v>
@@ -28931,7 +28933,7 @@
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P36" s="5"/>
     </row>
@@ -29012,7 +29014,7 @@
         <v>62</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K38" s="8">
         <v>1</v>
@@ -29123,7 +29125,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P40" s="5"/>
     </row>
@@ -29406,25 +29408,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="I47" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="I47" s="65" t="s">
+      <c r="J47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="65" t="s">
+      <c r="N47" s="65" t="s">
         <v>321</v>
-      </c>
-      <c r="N47" s="65" t="s">
-        <v>322</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>0</v>
@@ -29516,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>19</v>
@@ -29708,7 +29710,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N53" s="37" t="s">
         <v>19</v>
@@ -29742,10 +29744,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J54" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>282</v>
       </c>
       <c r="K54" s="37" t="s">
         <v>33</v>
@@ -29775,7 +29777,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>0</v>
@@ -29850,7 +29852,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N56" s="37" t="s">
         <v>19</v>
@@ -29886,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J57" s="37" t="s">
         <v>0</v>
@@ -29934,25 +29936,25 @@
         <v>0</v>
       </c>
       <c r="I58" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J58" s="37" t="s">
         <v>285</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>286</v>
       </c>
       <c r="K58" s="37" t="s">
         <v>33</v>
       </c>
       <c r="L58" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="M58" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="P58" s="5"/>
     </row>
@@ -29967,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>0</v>
@@ -30012,7 +30014,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" s="37"/>
       <c r="E60" s="37" t="s">
@@ -30088,13 +30090,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N61" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P61" s="5"/>
     </row>
@@ -30124,7 +30126,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>0</v>
@@ -30182,7 +30184,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N63" s="24" t="s">
         <v>19</v>
@@ -30216,7 +30218,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>0</v>
@@ -30262,16 +30264,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M65" s="24" t="s">
         <v>0</v>
@@ -30354,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>0</v>
@@ -30366,13 +30368,13 @@
         <v>0</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N67" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P67" s="5"/>
     </row>
@@ -30402,10 +30404,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>17</v>
@@ -30450,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J69" s="8">
         <v>150000</v>
@@ -30498,10 +30500,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>17</v>
@@ -30546,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J71" s="8">
         <v>7591212</v>
@@ -30594,10 +30596,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J72" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="J72" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>17</v>
@@ -30642,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J73" s="28" t="s">
         <v>36</v>
@@ -30690,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>0</v>
@@ -30702,7 +30704,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N74" s="24" t="s">
         <v>19</v>
@@ -30738,10 +30740,10 @@
         <v>0</v>
       </c>
       <c r="I75" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>38</v>
@@ -30786,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>17</v>
@@ -30834,10 +30836,10 @@
         <v>0</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J77" s="34" t="s">
         <v>313</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>314</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>17</v>
@@ -30976,7 +30978,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J80" s="28" t="s">
         <v>36</v>
@@ -30992,7 +30994,7 @@
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P80" s="5"/>
     </row>
@@ -31073,7 +31075,7 @@
         <v>62</v>
       </c>
       <c r="J82" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -31184,7 +31186,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P84" s="5"/>
     </row>
@@ -31467,25 +31469,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="I91" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="145" t="s">
         <v>420</v>
       </c>
-      <c r="I91" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" s="145" t="s">
+      <c r="N91" s="144" t="s">
         <v>421</v>
-      </c>
-      <c r="N91" s="144" t="s">
-        <v>422</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>0</v>
@@ -31577,7 +31579,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>19</v>
@@ -31769,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N97" s="37" t="s">
         <v>19</v>
@@ -31803,10 +31805,10 @@
         <v>0</v>
       </c>
       <c r="I98" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J98" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="J98" s="37" t="s">
-        <v>282</v>
       </c>
       <c r="K98" s="37" t="s">
         <v>33</v>
@@ -31836,7 +31838,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" s="37" t="s">
         <v>0</v>
@@ -31911,7 +31913,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N100" s="37" t="s">
         <v>19</v>
@@ -31947,7 +31949,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J101" s="37" t="s">
         <v>0</v>
@@ -31995,25 +31997,25 @@
         <v>0</v>
       </c>
       <c r="I102" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J102" s="37" t="s">
         <v>285</v>
-      </c>
-      <c r="J102" s="37" t="s">
-        <v>286</v>
       </c>
       <c r="K102" s="37" t="s">
         <v>33</v>
       </c>
       <c r="L102" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M102" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="M102" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N102" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O102" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="P102" s="5"/>
     </row>
@@ -32028,7 +32030,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>0</v>
@@ -32073,7 +32075,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D104" s="37"/>
       <c r="E104" s="37" t="s">
@@ -32149,13 +32151,13 @@
         <v>0</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N105" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P105" s="5"/>
     </row>
@@ -32185,7 +32187,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>0</v>
@@ -32243,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N107" s="24" t="s">
         <v>19</v>
@@ -32277,7 +32279,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>0</v>
@@ -32323,16 +32325,16 @@
         <v>0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K109" s="8">
         <v>1</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M109" s="24" t="s">
         <v>0</v>
@@ -32415,7 +32417,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>0</v>
@@ -32427,13 +32429,13 @@
         <v>0</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N111" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P111" s="5"/>
     </row>
@@ -32463,10 +32465,10 @@
         <v>0</v>
       </c>
       <c r="I112" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J112" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>17</v>
@@ -32511,7 +32513,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J113" s="8">
         <v>150000</v>
@@ -32559,10 +32561,10 @@
         <v>0</v>
       </c>
       <c r="I114" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J114" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="K114" s="8" t="s">
         <v>17</v>
@@ -32607,7 +32609,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J115" s="8">
         <v>7591212</v>
@@ -32655,10 +32657,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J116" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="J116" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>17</v>
@@ -32703,7 +32705,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J117" s="28" t="s">
         <v>36</v>
@@ -32751,7 +32753,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>0</v>
@@ -32763,7 +32765,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N118" s="24" t="s">
         <v>19</v>
@@ -32799,10 +32801,10 @@
         <v>0</v>
       </c>
       <c r="I119" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J119" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>38</v>
@@ -32847,10 +32849,10 @@
         <v>0</v>
       </c>
       <c r="I120" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J120" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="K120" s="8" t="s">
         <v>17</v>
@@ -32895,10 +32897,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J121" s="34" t="s">
         <v>313</v>
-      </c>
-      <c r="J121" s="34" t="s">
-        <v>314</v>
       </c>
       <c r="K121" s="8" t="s">
         <v>17</v>
@@ -33037,7 +33039,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J124" s="28" t="s">
         <v>36</v>
@@ -33053,7 +33055,7 @@
       </c>
       <c r="N124" s="8"/>
       <c r="O124" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P124" s="5"/>
     </row>
@@ -33134,7 +33136,7 @@
         <v>62</v>
       </c>
       <c r="J126" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K126" s="8">
         <v>1</v>
@@ -33245,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P128" s="5"/>
     </row>
@@ -34525,7 +34527,7 @@
       </c>
       <c r="N21" s="81"/>
       <c r="O21" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
@@ -34566,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N22" s="78" t="s">
         <v>40</v>
@@ -34604,7 +34606,7 @@
         <v>111</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K23" s="75">
         <v>1</v>
@@ -34707,7 +34709,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N25" s="75" t="s">
         <v>19</v>
@@ -34801,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N27" s="75" t="s">
         <v>40</v>
@@ -34989,7 +34991,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N31" s="78" t="s">
         <v>113</v>
@@ -35083,7 +35085,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N33" s="75" t="s">
         <v>40</v>
@@ -35118,7 +35120,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J34" s="75" t="s">
         <v>0</v>
@@ -35165,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J35" s="75" t="s">
         <v>0</v>
@@ -36732,7 +36734,7 @@
       </c>
       <c r="N68" s="81"/>
       <c r="O68" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
@@ -36773,7 +36775,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N69" s="78" t="s">
         <v>40</v>
@@ -36811,7 +36813,7 @@
         <v>111</v>
       </c>
       <c r="J70" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K70" s="75">
         <v>1</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N72" s="75" t="s">
         <v>19</v>
@@ -37008,7 +37010,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N74" s="75" t="s">
         <v>40</v>
@@ -37196,7 +37198,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N78" s="78" t="s">
         <v>113</v>
@@ -37290,7 +37292,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N80" s="75" t="s">
         <v>40</v>
@@ -37325,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J81" s="75" t="s">
         <v>0</v>
@@ -37372,7 +37374,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J82" s="75" t="s">
         <v>0</v>
@@ -38197,25 +38199,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -38307,7 +38309,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -38852,25 +38854,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>0</v>
@@ -38962,7 +38964,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>19</v>
@@ -39507,25 +39509,25 @@
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>0</v>
@@ -39617,7 +39619,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>19</v>
@@ -40162,25 +40164,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7" t="s">
+      <c r="N45" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>0</v>
@@ -40272,7 +40274,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>19</v>
@@ -40817,25 +40819,25 @@
         <v>0</v>
       </c>
       <c r="H59" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>0</v>
@@ -40927,7 +40929,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>19</v>
@@ -41472,25 +41474,25 @@
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="J73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="J73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M73" s="7" t="s">
+      <c r="N73" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="N73" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>0</v>
@@ -41582,7 +41584,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>19</v>
@@ -42127,25 +42129,25 @@
         <v>0</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="J87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M87" s="7" t="s">
+      <c r="N87" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>0</v>
@@ -42237,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>19</v>
@@ -42782,25 +42784,25 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I101" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="J101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="J101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M101" s="7" t="s">
+      <c r="N101" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="N101" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>0</v>
@@ -42892,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N103" s="8" t="s">
         <v>19</v>
@@ -43563,25 +43565,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -43673,7 +43675,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -43708,7 +43710,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>0</v>
@@ -43964,25 +43966,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -44074,13 +44076,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44109,7 +44111,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>0</v>
@@ -44118,7 +44120,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>0</v>
@@ -44156,7 +44158,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>0</v>
@@ -44262,7 +44264,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>19</v>
@@ -44297,7 +44299,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>0</v>
@@ -44306,7 +44308,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>0</v>
@@ -44344,7 +44346,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>0</v>
@@ -44450,7 +44452,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>19</v>
@@ -44485,7 +44487,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>0</v>
@@ -44494,7 +44496,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>0</v>
@@ -44532,7 +44534,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>0</v>
@@ -44670,25 +44672,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>0</v>
@@ -44780,13 +44782,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44815,7 +44817,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>0</v>
@@ -44824,7 +44826,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>0</v>
@@ -44862,7 +44864,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>0</v>
@@ -44968,7 +44970,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>19</v>
@@ -45003,7 +45005,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>0</v>
@@ -45012,7 +45014,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M25" s="24" t="s">
         <v>0</v>
@@ -45050,7 +45052,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>0</v>
@@ -45156,7 +45158,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>19</v>
@@ -45191,7 +45193,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>0</v>
@@ -45200,7 +45202,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>0</v>
@@ -45238,7 +45240,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>0</v>
@@ -45491,25 +45493,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="N3" s="144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -45601,7 +45603,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -45892,25 +45894,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -46002,7 +46004,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -46547,25 +46549,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>0</v>
@@ -46657,7 +46659,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>19</v>
@@ -47321,25 +47323,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -47431,7 +47433,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -47525,7 +47527,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>113</v>
@@ -47534,7 +47536,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -47563,7 +47565,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>0</v>
@@ -48120,25 +48122,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>0</v>
@@ -48230,7 +48232,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>19</v>
@@ -48324,7 +48326,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>113</v>
@@ -48333,7 +48335,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -48362,7 +48364,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>0</v>
@@ -48919,25 +48921,25 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7" t="s">
+      <c r="N37" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>0</v>
@@ -49029,7 +49031,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>19</v>
@@ -49123,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>113</v>
@@ -49132,7 +49134,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -49161,7 +49163,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>0</v>
@@ -64826,10 +64828,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="205" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N3" s="116" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O3" s="51" t="s">
         <v>188</v>
@@ -65590,10 +65592,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="116" t="s">
         <v>412</v>
-      </c>
-      <c r="I3" s="116" t="s">
-        <v>413</v>
       </c>
       <c r="J3" s="116"/>
       <c r="K3" s="116" t="s">
@@ -65603,10 +65605,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="N3" s="116" t="s">
         <v>414</v>
-      </c>
-      <c r="N3" s="116" t="s">
-        <v>415</v>
       </c>
       <c r="O3" s="116" t="s">
         <v>0</v>
@@ -65816,10 +65818,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="130" t="s">
+        <v>415</v>
+      </c>
+      <c r="J8" s="126" t="s">
         <v>416</v>
-      </c>
-      <c r="J8" s="126" t="s">
-        <v>417</v>
       </c>
       <c r="K8" s="121"/>
       <c r="L8" s="121" t="s">
@@ -65858,10 +65860,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J9" s="117" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K9" s="117" t="s">
         <v>0</v>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPDRequest-CriteriaTaxonomy-SELFCONTAINED-V02.00.00.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPDRequest-CriteriaTaxonomy-SELFCONTAINED-V02.00.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18883" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19241" uniqueCount="478">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1064,7 +1064,37 @@
     <t>CRITERION.SELECTION.ECONOMIC_FINANCIAL_STANDING.OTHER_REQUIREMENTS</t>
   </si>
   <si>
-    <t>488ca189-bcdb-4bf4-80c7-3ad507fd89fb</t>
+    <t xml:space="preserve"> 4ddccd16-91e4-4b72-ae0f-78f2f1ab9490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26ece6a2-b360-46c1-890d-8338913b8719</t>
+  </si>
+  <si>
+    <t>Select the type of requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ca15c15f-110e-4a10-8d6e-5e41cf5f9098</t>
+  </si>
+  <si>
+    <t>Description of the economic or financial requirement</t>
+  </si>
+  <si>
+    <t>[Description]</t>
+  </si>
+  <si>
+    <t>[Amount]</t>
+  </si>
+  <si>
+    <t>[Period]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cc96aa19-a0be-4409-af58-ff3f3812741b</t>
+  </si>
+  <si>
+    <t>Minimum rating</t>
+  </si>
+  <si>
+    <t>Rating scheme</t>
   </si>
   <si>
     <t>For works contracts: performance of works of the specified type</t>
@@ -1221,6 +1251,9 @@
   </si>
   <si>
     <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.TECHNICIANS_FOR_QUALITY_CONTROL</t>
+  </si>
+  <si>
+    <t>488ca189-bcdb-4bf4-80c7-3ad507fd89fb</t>
   </si>
   <si>
     <t>For works contracts: technicians or technical bodies to carry out the work</t>
@@ -1473,6 +1506,12 @@
   </si>
   <si>
     <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.CERTIFICATES.ENVIRONMENTAL_MANAGEMENT.ENV_INDEPENDENT_CERTIFICATE</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>7/10</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2145,19 +2184,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2204,7 +2230,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2493,16 +2519,13 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2515,6 +2538,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -23435,9 +23464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25674,7 +25701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25836,25 +25863,25 @@
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -25884,25 +25911,25 @@
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39" t="s">
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -25932,10 +25959,10 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -25950,7 +25977,7 @@
       <c r="H6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -25980,10 +26007,10 @@
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -25998,7 +26025,7 @@
       <c r="H7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -26028,25 +26055,25 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="E8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -26076,7 +26103,7 @@
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -26094,7 +26121,7 @@
       <c r="H9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -26483,10 +26510,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O17" s="48" t="s">
         <v>0</v>
@@ -26509,8 +26536,12 @@
         <v>1</v>
       </c>
       <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="M18" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>19</v>
+      </c>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26645,10 +26676,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="48" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="N21" s="48" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" s="48" t="s">
         <v>0</v>
@@ -27393,24 +27424,34 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="86" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="86" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="86"/>
+    <col min="1" max="1" width="3" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="57" customWidth="1"/>
+    <col min="4" max="6" width="25.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="86" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="57" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="86" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="57" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="108">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="109">
         <v>2</v>
       </c>
       <c r="C1" s="2">
@@ -27437,7 +27478,7 @@
       <c r="J1" s="2">
         <v>10</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="104">
         <v>11</v>
       </c>
       <c r="L1" s="2">
@@ -27446,7 +27487,7 @@
       <c r="M1" s="2">
         <v>13</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="104">
         <v>14</v>
       </c>
       <c r="O1" s="2">
@@ -27484,7 +27525,7 @@
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="77" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -27493,14 +27534,14 @@
       <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="77" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>35</v>
       </c>
@@ -27531,7 +27572,7 @@
       <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="78" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -27540,7 +27581,7 @@
       <c r="M3" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="78" t="s">
         <v>334</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -27554,46 +27595,46 @@
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="64"/>
+      <c r="C4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -27602,45 +27643,46 @@
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="E5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="80">
         <v>1</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="L5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="O5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -27649,45 +27691,46 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="C6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="80">
         <v>1</v>
       </c>
-      <c r="L6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="L6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -27696,95 +27739,1295 @@
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="80">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="83">
+        <v>1</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="N11" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="N13" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="83">
+        <v>1</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="N16" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="83">
+        <v>1</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="N18" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19" s="83">
+        <v>1</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="83">
+        <v>1</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="83">
+        <v>1</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="K23" s="85">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="N26" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="83">
+        <v>1</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="83">
+        <v>1</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="117"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J30" s="116" t="s">
+        <v>477</v>
+      </c>
+      <c r="K30" s="85">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27928,11 +29171,11 @@
       <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>337</v>
+      <c r="H3" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>347</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -27943,11 +29186,11 @@
       <c r="L3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="112" t="s">
-        <v>338</v>
-      </c>
-      <c r="N3" s="112" t="s">
-        <v>339</v>
+      <c r="M3" s="111" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="111" t="s">
+        <v>349</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -28039,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>19</v>
@@ -28075,7 +29318,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J6" s="48">
         <v>3</v>
@@ -28084,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M6" s="48" t="s">
         <v>0</v>
@@ -28231,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N9" s="48" t="s">
         <v>19</v>
@@ -28265,10 +29508,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>33</v>
@@ -28373,7 +29616,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N12" s="48" t="s">
         <v>19</v>
@@ -28475,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -28611,13 +29854,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -28647,7 +29890,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>0</v>
@@ -28705,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N19" s="24" t="s">
         <v>19</v>
@@ -28739,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>0</v>
@@ -28877,7 +30120,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>0</v>
@@ -28889,13 +30132,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N23" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -28925,10 +30168,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>54</v>
@@ -28973,7 +30216,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J25" s="8">
         <v>150000</v>
@@ -29021,10 +30264,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>54</v>
@@ -29069,7 +30312,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="J27" s="8">
         <v>7591212</v>
@@ -29117,10 +30360,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>54</v>
@@ -29165,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>36</v>
@@ -29213,7 +30456,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>0</v>
@@ -29225,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="N30" s="24" t="s">
         <v>19</v>
@@ -29261,10 +30504,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>17</v>
@@ -29309,10 +30552,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>54</v>
@@ -29357,10 +30600,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>54</v>
@@ -29499,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>36</v>
@@ -29515,7 +30758,7 @@
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P36" s="5"/>
     </row>
@@ -29596,7 +30839,7 @@
         <v>62</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K38" s="8">
         <v>1</v>
@@ -29707,7 +30950,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P40" s="5"/>
     </row>
@@ -29963,8 +31206,8 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="5"/>
@@ -29989,11 +31232,11 @@
       <c r="G47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="112" t="s">
-        <v>377</v>
-      </c>
-      <c r="I47" s="112" t="s">
-        <v>378</v>
+      <c r="H47" s="111" t="s">
+        <v>387</v>
+      </c>
+      <c r="I47" s="111" t="s">
+        <v>388</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>0</v>
@@ -30004,11 +31247,11 @@
       <c r="L47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="112" t="s">
-        <v>379</v>
-      </c>
-      <c r="N47" s="112" t="s">
-        <v>380</v>
+      <c r="M47" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="N47" s="111" t="s">
+        <v>390</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>0</v>
@@ -30100,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>19</v>
@@ -30136,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J50" s="48">
         <v>3</v>
@@ -30145,7 +31388,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M50" s="48" t="s">
         <v>0</v>
@@ -30292,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N53" s="48" t="s">
         <v>19</v>
@@ -30326,10 +31569,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="48" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K54" s="48" t="s">
         <v>33</v>
@@ -30434,7 +31677,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="48" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N56" s="48" t="s">
         <v>19</v>
@@ -30536,7 +31779,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="48" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P58" s="5"/>
     </row>
@@ -30672,13 +31915,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="N61" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P61" s="5"/>
     </row>
@@ -30708,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>0</v>
@@ -30766,7 +32009,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N63" s="24" t="s">
         <v>19</v>
@@ -30800,7 +32043,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>0</v>
@@ -30938,7 +32181,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>0</v>
@@ -30950,13 +32193,13 @@
         <v>0</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N67" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P67" s="5"/>
     </row>
@@ -30986,10 +32229,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>54</v>
@@ -31034,7 +32277,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J69" s="8">
         <v>150000</v>
@@ -31082,10 +32325,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>54</v>
@@ -31130,7 +32373,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="J71" s="8">
         <v>7591212</v>
@@ -31178,10 +32421,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>54</v>
@@ -31226,7 +32469,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J73" s="28" t="s">
         <v>36</v>
@@ -31274,7 +32517,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>0</v>
@@ -31286,7 +32529,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="N74" s="24" t="s">
         <v>19</v>
@@ -31322,10 +32565,10 @@
         <v>0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>17</v>
@@ -31370,10 +32613,10 @@
         <v>0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>54</v>
@@ -31418,10 +32661,10 @@
         <v>0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J77" s="34" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>54</v>
@@ -31560,7 +32803,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J80" s="28" t="s">
         <v>36</v>
@@ -31576,7 +32819,7 @@
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P80" s="5"/>
     </row>
@@ -31657,7 +32900,7 @@
         <v>62</v>
       </c>
       <c r="J82" s="34" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -31768,7 +33011,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P84" s="5"/>
     </row>
@@ -32024,8 +33267,8 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="112"/>
-      <c r="M90" s="112"/>
+      <c r="L90" s="111"/>
+      <c r="M90" s="111"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="5"/>
@@ -32050,11 +33293,11 @@
       <c r="G91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="112" t="s">
-        <v>381</v>
-      </c>
-      <c r="I91" s="112" t="s">
-        <v>378</v>
+      <c r="H91" s="111" t="s">
+        <v>391</v>
+      </c>
+      <c r="I91" s="111" t="s">
+        <v>388</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>0</v>
@@ -32065,11 +33308,11 @@
       <c r="L91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M91" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="N91" s="113" t="s">
-        <v>383</v>
+      <c r="M91" s="113" t="s">
+        <v>392</v>
+      </c>
+      <c r="N91" s="112" t="s">
+        <v>393</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>0</v>
@@ -32161,7 +33404,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N93" s="24" t="s">
         <v>19</v>
@@ -32197,7 +33440,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="48" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J94" s="48">
         <v>3</v>
@@ -32206,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="48" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M94" s="48" t="s">
         <v>0</v>
@@ -32353,7 +33596,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="48" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N97" s="48" t="s">
         <v>19</v>
@@ -32387,10 +33630,10 @@
         <v>0</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="J98" s="48" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K98" s="48" t="s">
         <v>33</v>
@@ -32495,7 +33738,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="48" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N100" s="48" t="s">
         <v>19</v>
@@ -32597,7 +33840,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="48" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P102" s="5"/>
     </row>
@@ -32733,13 +33976,13 @@
         <v>0</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="N105" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P105" s="5"/>
     </row>
@@ -32769,7 +34012,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>0</v>
@@ -32827,7 +34070,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N107" s="24" t="s">
         <v>19</v>
@@ -32861,7 +34104,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>0</v>
@@ -32999,7 +34242,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="27" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>0</v>
@@ -33011,13 +34254,13 @@
         <v>0</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N111" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P111" s="5"/>
     </row>
@@ -33047,10 +34290,10 @@
         <v>0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>54</v>
@@ -33095,7 +34338,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J113" s="8">
         <v>150000</v>
@@ -33143,10 +34386,10 @@
         <v>0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K114" s="8" t="s">
         <v>54</v>
@@ -33191,7 +34434,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="J115" s="8">
         <v>7591212</v>
@@ -33239,10 +34482,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="J116" s="28" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>54</v>
@@ -33287,7 +34530,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J117" s="28" t="s">
         <v>36</v>
@@ -33335,7 +34578,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>0</v>
@@ -33347,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="N118" s="24" t="s">
         <v>19</v>
@@ -33383,10 +34626,10 @@
         <v>0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>17</v>
@@ -33431,10 +34674,10 @@
         <v>0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K120" s="8" t="s">
         <v>54</v>
@@ -33479,10 +34722,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J121" s="34" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K121" s="8" t="s">
         <v>54</v>
@@ -33621,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J124" s="28" t="s">
         <v>36</v>
@@ -33637,7 +34880,7 @@
       </c>
       <c r="N124" s="8"/>
       <c r="O124" s="8" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P124" s="5"/>
     </row>
@@ -33718,7 +34961,7 @@
         <v>62</v>
       </c>
       <c r="J126" s="34" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K126" s="8">
         <v>1</v>
@@ -33829,7 +35072,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P128" s="5"/>
     </row>
@@ -34085,8 +35328,8 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
-      <c r="L134" s="112"/>
-      <c r="M134" s="112"/>
+      <c r="L134" s="111"/>
+      <c r="M134" s="111"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
       <c r="P134" s="5"/>
@@ -38777,10 +40020,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -38792,10 +40035,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -38887,7 +40130,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -38990,7 +40233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -39037,7 +40280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
@@ -39082,7 +40325,7 @@
       </c>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
@@ -39129,7 +40372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -39176,7 +40419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
@@ -39223,7 +40466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -39268,7 +40511,7 @@
       </c>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
@@ -39315,7 +40558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>0</v>
       </c>
@@ -39362,50 +40605,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="112" t="s">
+      <c r="C16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -39432,10 +40675,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>0</v>
@@ -39447,10 +40690,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>0</v>
@@ -39542,7 +40785,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>19</v>
@@ -39645,7 +40888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -39692,7 +40935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>0</v>
       </c>
@@ -39737,7 +40980,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>0</v>
       </c>
@@ -39784,7 +41027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>0</v>
       </c>
@@ -39831,7 +41074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>0</v>
       </c>
@@ -39878,7 +41121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>0</v>
       </c>
@@ -39923,7 +41166,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>0</v>
       </c>
@@ -39970,7 +41213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>0</v>
       </c>
@@ -40017,50 +41260,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="112" t="s">
+      <c r="C30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -40087,10 +41330,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>0</v>
@@ -40102,10 +41345,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>0</v>
@@ -40197,7 +41440,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>19</v>
@@ -40300,7 +41543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>0</v>
       </c>
@@ -40347,7 +41590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>0</v>
       </c>
@@ -40392,7 +41635,7 @@
       </c>
       <c r="O37" s="24"/>
     </row>
-    <row r="38" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>0</v>
       </c>
@@ -40439,7 +41682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>0</v>
       </c>
@@ -40486,7 +41729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>0</v>
       </c>
@@ -40533,7 +41776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>0</v>
       </c>
@@ -40578,7 +41821,7 @@
       </c>
       <c r="O41" s="24"/>
     </row>
-    <row r="42" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>0</v>
       </c>
@@ -40625,7 +41868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>0</v>
       </c>
@@ -40672,50 +41915,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="112" t="s">
+      <c r="C44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -40742,10 +41985,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>0</v>
@@ -40757,10 +42000,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>0</v>
@@ -40852,7 +42095,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>19</v>
@@ -40955,7 +42198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>0</v>
       </c>
@@ -41002,7 +42245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>0</v>
       </c>
@@ -41047,7 +42290,7 @@
       </c>
       <c r="O51" s="24"/>
     </row>
-    <row r="52" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>0</v>
       </c>
@@ -41094,7 +42337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>0</v>
       </c>
@@ -41141,7 +42384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>0</v>
       </c>
@@ -41188,7 +42431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>0</v>
       </c>
@@ -41233,7 +42476,7 @@
       </c>
       <c r="O55" s="24"/>
     </row>
-    <row r="56" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>0</v>
       </c>
@@ -41280,7 +42523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>0</v>
       </c>
@@ -41327,50 +42570,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="112" t="s">
+      <c r="C58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -41397,10 +42640,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>0</v>
@@ -41412,10 +42655,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>0</v>
@@ -41507,7 +42750,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>19</v>
@@ -41610,7 +42853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>0</v>
       </c>
@@ -41657,7 +42900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>0</v>
       </c>
@@ -41702,7 +42945,7 @@
       </c>
       <c r="O65" s="24"/>
     </row>
-    <row r="66" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>0</v>
       </c>
@@ -41749,7 +42992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>0</v>
       </c>
@@ -41796,7 +43039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>0</v>
       </c>
@@ -41843,7 +43086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>0</v>
       </c>
@@ -41888,7 +43131,7 @@
       </c>
       <c r="O69" s="24"/>
     </row>
-    <row r="70" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>0</v>
       </c>
@@ -41935,7 +43178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>0</v>
       </c>
@@ -41982,50 +43225,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O72" s="112" t="s">
+      <c r="C72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -42052,10 +43295,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>0</v>
@@ -42067,10 +43310,10 @@
         <v>0</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>0</v>
@@ -42162,7 +43405,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>19</v>
@@ -42265,7 +43508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>0</v>
       </c>
@@ -42312,7 +43555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>0</v>
       </c>
@@ -42357,7 +43600,7 @@
       </c>
       <c r="O79" s="24"/>
     </row>
-    <row r="80" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>0</v>
       </c>
@@ -42404,7 +43647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>0</v>
       </c>
@@ -42451,7 +43694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>0</v>
       </c>
@@ -42498,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>0</v>
       </c>
@@ -42543,7 +43786,7 @@
       </c>
       <c r="O83" s="24"/>
     </row>
-    <row r="84" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>0</v>
       </c>
@@ -42590,7 +43833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>0</v>
       </c>
@@ -42637,50 +43880,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N86" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O86" s="112" t="s">
+      <c r="C86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -42707,10 +43950,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>0</v>
@@ -42722,10 +43965,10 @@
         <v>0</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>0</v>
@@ -42817,7 +44060,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>19</v>
@@ -42920,7 +44163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>0</v>
       </c>
@@ -42967,7 +44210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>0</v>
       </c>
@@ -43012,7 +44255,7 @@
       </c>
       <c r="O93" s="24"/>
     </row>
-    <row r="94" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>0</v>
       </c>
@@ -43059,7 +44302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>0</v>
       </c>
@@ -43106,7 +44349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>0</v>
       </c>
@@ -43153,7 +44396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>0</v>
       </c>
@@ -43198,7 +44441,7 @@
       </c>
       <c r="O97" s="24"/>
     </row>
-    <row r="98" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>0</v>
       </c>
@@ -43245,7 +44488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
         <v>0</v>
       </c>
@@ -43292,50 +44535,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="112" t="s">
+      <c r="B100" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N100" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O100" s="112" t="s">
+      <c r="C100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -43362,10 +44605,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>0</v>
@@ -43377,10 +44620,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>0</v>
@@ -43472,7 +44715,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="N103" s="8" t="s">
         <v>19</v>
@@ -43575,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>0</v>
       </c>
@@ -43622,7 +44865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>0</v>
       </c>
@@ -43667,7 +44910,7 @@
       </c>
       <c r="O107" s="24"/>
     </row>
-    <row r="108" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>0</v>
       </c>
@@ -43714,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>0</v>
       </c>
@@ -43761,7 +45004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>0</v>
       </c>
@@ -43808,7 +45051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24" t="s">
         <v>0</v>
       </c>
@@ -43853,7 +45096,7 @@
       </c>
       <c r="O111" s="24"/>
     </row>
-    <row r="112" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>0</v>
       </c>
@@ -43900,7 +45143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>0</v>
       </c>
@@ -43947,50 +45190,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="112" t="s">
+      <c r="B114" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="H114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="I114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="K114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="L114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="N114" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O114" s="112" t="s">
+      <c r="C114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="L114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="M114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" s="111" t="s">
         <v>0</v>
       </c>
     </row>
@@ -44143,10 +45386,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -44158,10 +45401,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -44253,7 +45496,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -44288,7 +45531,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>0</v>
@@ -44542,10 +45785,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -44557,10 +45800,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -44652,13 +45895,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="116" t="s">
-        <v>427</v>
+      <c r="O5" s="115" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -44687,7 +45930,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>0</v>
@@ -44696,7 +45939,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>0</v>
@@ -44734,7 +45977,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>0</v>
@@ -44743,7 +45986,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>0</v>
@@ -44840,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>19</v>
@@ -44875,7 +46118,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>0</v>
@@ -44884,7 +46127,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M10" s="24" t="s">
         <v>0</v>
@@ -44922,7 +46165,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>0</v>
@@ -44931,7 +46174,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M11" s="24" t="s">
         <v>0</v>
@@ -45028,7 +46271,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>19</v>
@@ -45063,7 +46306,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>0</v>
@@ -45072,7 +46315,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>0</v>
@@ -45110,7 +46353,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>0</v>
@@ -45119,7 +46362,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M15" s="24" t="s">
         <v>0</v>
@@ -45248,10 +46491,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>0</v>
@@ -45263,10 +46506,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>0</v>
@@ -45358,13 +46601,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="116" t="s">
-        <v>427</v>
+      <c r="O20" s="115" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -45393,7 +46636,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>0</v>
@@ -45402,7 +46645,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>0</v>
@@ -45440,7 +46683,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>0</v>
@@ -45449,7 +46692,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M22" s="24" t="s">
         <v>0</v>
@@ -45546,7 +46789,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>19</v>
@@ -45581,7 +46824,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>0</v>
@@ -45590,7 +46833,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M25" s="24" t="s">
         <v>0</v>
@@ -45628,7 +46871,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>0</v>
@@ -45637,7 +46880,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M26" s="24" t="s">
         <v>0</v>
@@ -45734,7 +46977,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>19</v>
@@ -45769,7 +47012,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>0</v>
@@ -45778,7 +47021,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>0</v>
@@ -45816,7 +47059,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>0</v>
@@ -45825,7 +47068,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>0</v>
@@ -46067,10 +47310,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -46082,10 +47325,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="N3" s="113" t="s">
-        <v>438</v>
+        <v>448</v>
+      </c>
+      <c r="N3" s="112" t="s">
+        <v>449</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -46177,7 +47420,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -46466,10 +47709,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -46481,10 +47724,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -46576,7 +47819,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -46679,7 +47922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -46726,7 +47969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
@@ -46771,7 +48014,7 @@
       </c>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
@@ -46818,7 +48061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -46865,7 +48108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
@@ -46912,7 +48155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -46957,7 +48200,7 @@
       </c>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
@@ -47004,7 +48247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>0</v>
       </c>
@@ -47121,10 +48364,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>0</v>
@@ -47136,10 +48379,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>0</v>
@@ -47231,7 +48474,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>19</v>
@@ -47334,7 +48577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -47381,7 +48624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>0</v>
       </c>
@@ -47426,7 +48669,7 @@
       </c>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>0</v>
       </c>
@@ -47473,7 +48716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>0</v>
       </c>
@@ -47520,7 +48763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>0</v>
       </c>
@@ -47567,7 +48810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>0</v>
       </c>
@@ -47612,7 +48855,7 @@
       </c>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>0</v>
       </c>
@@ -47659,7 +48902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>0</v>
       </c>
@@ -47893,10 +49136,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>0</v>
@@ -47908,10 +49151,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>0</v>
@@ -48003,7 +49246,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>19</v>
@@ -48097,7 +49340,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>119</v>
@@ -48106,7 +49349,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -48135,7 +49378,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>0</v>
@@ -48692,10 +49935,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>0</v>
@@ -48707,10 +49950,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>0</v>
@@ -48802,7 +50045,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>19</v>
@@ -48896,7 +50139,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>119</v>
@@ -48905,7 +50148,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -48934,7 +50177,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>0</v>
@@ -49491,10 +50734,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>0</v>
@@ -49506,10 +50749,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>0</v>
@@ -49601,7 +50844,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>19</v>
@@ -49695,7 +50938,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>119</v>
@@ -49704,7 +50947,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -49733,7 +50976,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>0</v>
